--- a/src/main/resources/xlsx/pmd/report_party.xlsx
+++ b/src/main/resources/xlsx/pmd/report_party.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{EAF6BDAA-D8A9-4238-AB8C-5DAA6DC9C321}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{2AA88EED-DE03-4B20-8141-C2555C7F20EC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2 (2)" sheetId="3" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -372,7 +372,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -450,11 +450,81 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -483,6 +553,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -495,31 +586,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -804,326 +889,364 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:H15"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="1" customWidth="1"/>
-    <col min="3" max="5" width="10.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" style="1" customWidth="1"/>
-    <col min="9" max="11" width="10.625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.875" style="1"/>
+    <col min="1" max="2" width="11.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="1" customWidth="1"/>
+    <col min="4" max="6" width="10.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.625" style="2" customWidth="1"/>
+    <col min="8" max="9" width="11.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="1" customWidth="1"/>
+    <col min="11" max="13" width="10.625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="10" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-    </row>
-    <row r="2" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+    </row>
+    <row r="2" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="G2" s="13" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="H2" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-    </row>
-    <row r="3" spans="1:11" s="8" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+    </row>
+    <row r="3" spans="1:13" s="8" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="G3" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="23"/>
+      <c r="J3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:13" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="I4" s="16"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="5" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="I5" s="16"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:13" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="5" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="I6" s="16"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="5" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="I7" s="16"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F8" s="23"/>
-    </row>
-    <row r="9" spans="1:11" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="14" t="s">
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G8" s="28"/>
+    </row>
+    <row r="9" spans="1:13" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="14" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-    </row>
-    <row r="10" spans="1:11" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="22" t="s">
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" spans="1:13" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="22" t="s">
+      <c r="E10" s="16"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="I10" s="25"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="17"/>
-    </row>
-    <row r="11" spans="1:11" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="22"/>
-      <c r="B11" s="18" t="s">
+      <c r="L10" s="16"/>
+      <c r="M10" s="10"/>
+    </row>
+    <row r="11" spans="1:13" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="26"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="18" t="s">
+      <c r="E11" s="16"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="17"/>
-    </row>
-    <row r="12" spans="1:11" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
+      <c r="L11" s="16"/>
+      <c r="M11" s="10"/>
+    </row>
+    <row r="12" spans="1:13" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="21"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="6" t="s">
+      <c r="F12" s="16"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="15"/>
       <c r="K12" s="21"/>
-    </row>
-    <row r="13" spans="1:11" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="14" t="s">
+      <c r="L12" s="21"/>
+      <c r="M12" s="16"/>
+    </row>
+    <row r="13" spans="1:13" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="14" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-    </row>
-    <row r="14" spans="1:11" s="7" customFormat="1" ht="136.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="1:13" s="7" customFormat="1" ht="136.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="15" t="s">
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-    </row>
-    <row r="15" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11" t="s">
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+    </row>
+    <row r="15" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="11" t="s">
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="F3:F14"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:E14"/>
+  <mergeCells count="39">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H10:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G3:G14"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="J10:J11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
